--- a/Miền Cực Nhọc.xlsx
+++ b/Miền Cực Nhọc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://0tq0z-my.sharepoint.com/personal/loclx273_0tq0z_onmicrosoft_com/Documents/AIOT_Project/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://0tq0z-my.sharepoint.com/personal/loclx273_0tq0z_onmicrosoft_com/Documents/AIOT_Project/RC_Car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{3EE1845C-CD4D-436F-95DE-A6BCCE4F47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B1B2B1-C3A3-42FF-AFD9-073D1A1B0E37}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{3EE1845C-CD4D-436F-95DE-A6BCCE4F47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FCAB86-52B4-40E6-B3F2-87E03020EDDE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ECF99E71-84FC-4728-B571-0066AED0F98B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{ECF99E71-84FC-4728-B571-0066AED0F98B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
   <si>
     <t>3x7</t>
   </si>
@@ -441,7 +441,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,7 +449,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -856,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -865,44 +865,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,7 +903,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,10 +936,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,7 +959,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1263,9 +1261,9 @@
       <selection activeCell="CO8" sqref="CO8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>30</v>
@@ -1275,7 +1273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>31</v>
@@ -1285,13 +1283,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1577,7 +1575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1855,401 +1853,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664FBAED-3FFA-49A8-92B9-0C49A66D4BC7}">
   <dimension ref="A3:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J13" sqref="J13:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="12" customWidth="1"/>
-    <col min="10" max="13" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="10" customWidth="1"/>
+    <col min="10" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24" t="s">
+      <c r="K5" s="31"/>
+      <c r="L5" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>119</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>7</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>7</v>
       </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="39">
-        <v>0</v>
-      </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
         <v>10</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="42">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+      <c r="N7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="42">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>7</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="29">
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
         <v>6</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="42">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <v>10</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="30" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="42">
+      <c r="M10" s="23"/>
+      <c r="N10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>5</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="42">
+      <c r="J11" s="24"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="20">
         <v>9</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="42">
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
+      <c r="N12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>10</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="30" t="s">
+      <c r="K13" s="26"/>
+      <c r="L13" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="42">
+      <c r="M13" s="23"/>
+      <c r="N13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>5</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="42">
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="30"/>
+      <c r="N14">
         <v>3</v>
       </c>
     </row>
@@ -2275,16 +2273,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0571B-1B9F-46DD-988F-6F101589B449}">
   <dimension ref="B4:F18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>99</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>14</v>
       </c>
@@ -2312,11 +2310,11 @@
         <f xml:space="preserve"> 28/100*(100-$B5)</f>
         <v>24.080000000000002</v>
       </c>
-      <c r="F5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>28</v>
       </c>
@@ -2330,11 +2328,11 @@
         <f t="shared" ref="E6:E11" si="0" xml:space="preserve"> 28/100*(100-$B6)</f>
         <v>20.160000000000004</v>
       </c>
-      <c r="F6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>42</v>
       </c>
@@ -2348,11 +2346,11 @@
         <f t="shared" si="0"/>
         <v>16.240000000000002</v>
       </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>56</v>
       </c>
@@ -2366,11 +2364,11 @@
         <f t="shared" si="0"/>
         <v>12.32</v>
       </c>
-      <c r="F8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>71</v>
       </c>
@@ -2384,11 +2382,11 @@
         <f t="shared" si="0"/>
         <v>8.120000000000001</v>
       </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>85</v>
       </c>
@@ -2402,11 +2400,11 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="F10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>100</v>
       </c>
@@ -2420,11 +2418,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>14</v>
+      </c>
       <c r="C12">
         <v>6</v>
       </c>
@@ -2434,11 +2435,14 @@
       <c r="E12">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>28</v>
+      </c>
       <c r="C13">
         <v>5</v>
       </c>
@@ -2448,11 +2452,14 @@
       <c r="E13">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>42</v>
+      </c>
       <c r="C14">
         <v>4</v>
       </c>
@@ -2462,11 +2469,14 @@
       <c r="E14">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>56</v>
+      </c>
       <c r="C15">
         <v>3</v>
       </c>
@@ -2476,11 +2486,14 @@
       <c r="E15">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>71</v>
+      </c>
       <c r="C16">
         <v>2</v>
       </c>
@@ -2490,11 +2503,14 @@
       <c r="E16">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>85</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -2504,11 +2520,14 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>100</v>
+      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -2518,8 +2537,8 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>119</v>
+      <c r="F18">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Miền Cực Nhọc.xlsx
+++ b/Miền Cực Nhọc.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://0tq0z-my.sharepoint.com/personal/loclx273_0tq0z_onmicrosoft_com/Documents/AIOT_Project/RC_Car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{3EE1845C-CD4D-436F-95DE-A6BCCE4F47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FCAB86-52B4-40E6-B3F2-87E03020EDDE}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="8_{3EE1845C-CD4D-436F-95DE-A6BCCE4F47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8913B17A-2486-4C4A-84CF-9716D46F2FDA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{ECF99E71-84FC-4728-B571-0066AED0F98B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{ECF99E71-84FC-4728-B571-0066AED0F98B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
     <t>3x7</t>
   </si>
@@ -431,6 +454,16 @@
   </si>
   <si>
     <t>pwmB - ((V2-7) &lt;&lt; 1)</t>
+  </si>
+  <si>
+    <t>Độ lệch</t>
+  </si>
+  <si>
+    <t>(V1 - 7)*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            V2
+V1</t>
   </si>
 </sst>
 </file>
@@ -441,7 +474,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,12 +482,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +542,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -852,11 +891,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -936,9 +992,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -959,7 +1025,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,13 +1323,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6777E097-788A-4E7C-B4AA-B4C3ABE91A7A}">
   <dimension ref="A1:CN9"/>
   <sheetViews>
-    <sheetView topLeftCell="CA1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="CO8" sqref="CO8"/>
+    <sheetView topLeftCell="AE1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>30</v>
@@ -1273,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>31</v>
@@ -1283,13 +1349,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1297,7 +1363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1575,7 +1641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1857,14 +1923,14 @@
       <selection activeCell="J13" sqref="J13:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="10" customWidth="1"/>
-    <col min="10" max="13" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="10" customWidth="1"/>
+    <col min="10" max="13" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1895,7 +1961,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>115</v>
       </c>
@@ -1930,7 +1996,7 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>116</v>
       </c>
@@ -1965,7 +2031,7 @@
       <c r="L6" s="39"/>
       <c r="M6" s="40"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>120</v>
       </c>
@@ -2001,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>121</v>
       </c>
@@ -2035,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>122</v>
       </c>
@@ -2071,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>124</v>
       </c>
@@ -2109,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>125</v>
       </c>
@@ -2143,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>123</v>
       </c>
@@ -2179,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>126</v>
       </c>
@@ -2217,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>127</v>
       </c>
@@ -2271,277 +2337,1423 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0571B-1B9F-46DD-988F-6F101589B449}">
-  <dimension ref="B4:F18"/>
+  <dimension ref="C5:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B18"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="H5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6:F12" xml:space="preserve"> G6/100*(100-C6:C12)</f>
+        <v>12.040000000000001</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>10.080000000000002</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>6.16</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>2.1</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>9</v>
       </c>
-      <c r="E5">
-        <f xml:space="preserve"> 28/100*(100-$B5)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13:F19" xml:space="preserve"> G13/100*(100-C13:C19)</f>
         <v>24.080000000000002</v>
       </c>
-      <c r="F5">
+      <c r="G13">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14">
         <v>28</v>
       </c>
-      <c r="C6">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E11" si="0" xml:space="preserve"> 28/100*(100-$B6)</f>
+      <c r="F14">
         <v>20.160000000000004</v>
       </c>
-      <c r="F6">
+      <c r="G14">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15">
         <v>42</v>
       </c>
-      <c r="C7">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="E15">
         <v>9</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="F15">
         <v>16.240000000000002</v>
       </c>
-      <c r="F7">
+      <c r="G15">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16">
         <v>56</v>
       </c>
-      <c r="C8">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E16">
         <v>9</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="F16">
         <v>12.32</v>
       </c>
-      <c r="F8">
+      <c r="G16">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17">
         <v>71</v>
       </c>
-      <c r="C9">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="F17">
         <v>8.120000000000001</v>
       </c>
-      <c r="F9">
+      <c r="G17">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18">
         <v>85</v>
       </c>
-      <c r="C10">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="E18">
         <v>9</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="F18">
         <v>4.2</v>
       </c>
-      <c r="F10">
+      <c r="G18">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19">
         <v>100</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="D20">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-      <c r="F12">
+      <c r="F20" cm="1">
+        <f t="array" ref="F20:F26" xml:space="preserve"> G20/100*(100-C20:C26)</f>
+        <v>36.119999999999997</v>
+      </c>
+      <c r="G20">
+        <v>42</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13">
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="E21">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="F21">
+        <v>30.24</v>
+      </c>
+      <c r="G21">
         <v>42</v>
       </c>
-      <c r="C14">
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>24</v>
-      </c>
-      <c r="F14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="F22">
+        <v>24.36</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23">
         <v>56</v>
       </c>
-      <c r="C15">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="F23">
+        <v>18.48</v>
+      </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24">
         <v>71</v>
       </c>
-      <c r="C16">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E24">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="F24">
+        <v>12.18</v>
+      </c>
+      <c r="G24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25">
         <v>85</v>
       </c>
-      <c r="C17">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="F25">
+        <v>6.3</v>
+      </c>
+      <c r="G25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26">
         <v>100</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>28</v>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3CC4E4-F61A-4242-90FB-2A33F761BD9A}">
+  <dimension ref="A3:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46">
+        <v>2</v>
+      </c>
+      <c r="E4" s="46">
+        <v>3</v>
+      </c>
+      <c r="F4" s="46">
+        <v>4</v>
+      </c>
+      <c r="G4" s="46">
+        <v>5</v>
+      </c>
+      <c r="H4" s="46">
+        <v>6</v>
+      </c>
+      <c r="I4" s="46">
+        <v>7</v>
+      </c>
+      <c r="J4" s="46">
+        <v>8</v>
+      </c>
+      <c r="K4" s="46">
+        <v>9</v>
+      </c>
+      <c r="L4" s="46">
+        <v>10</v>
+      </c>
+      <c r="M4" s="46">
+        <v>11</v>
+      </c>
+      <c r="N4" s="46">
+        <v>12</v>
+      </c>
+      <c r="O4" s="46">
+        <v>13</v>
+      </c>
+      <c r="P4" s="47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
+        <v>0</v>
+      </c>
+      <c r="B5" s="45">
+        <f t="shared" ref="B5:G5" si="0">ROUND($B12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="45">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="45">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="45">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H5" s="45">
+        <f>ROUND($B12/100*(100-H12),0)</f>
+        <v>85</v>
+      </c>
+      <c r="I5" s="43">
+        <v>100</v>
+      </c>
+      <c r="J5" s="45">
+        <f>ROUND($P12/100*(100-J12),0)</f>
+        <v>85</v>
+      </c>
+      <c r="K5" s="45">
+        <f t="shared" ref="K5:P5" si="1">ROUND($P12/100*(100-K12),0)</f>
+        <v>70</v>
+      </c>
+      <c r="L5" s="45">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="M5" s="45">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N5" s="45">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="O5" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P5" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45">
+        <f t="shared" ref="B6:G6" si="2">ROUND($C12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F6" s="45">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="H6" s="45">
+        <f>ROUND($C12/100*(100-H12),0)</f>
+        <v>77</v>
+      </c>
+      <c r="I6" s="43">
+        <v>90</v>
+      </c>
+      <c r="J6" s="45">
+        <f>ROUND($O12/100*(100-J12),0)</f>
+        <v>77</v>
+      </c>
+      <c r="K6" s="45">
+        <f t="shared" ref="K6:P6" si="3">ROUND($O12/100*(100-K12),0)</f>
+        <v>63</v>
+      </c>
+      <c r="L6" s="45">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M6" s="45">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="45">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="O6" s="45">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P6" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
+        <v>2</v>
+      </c>
+      <c r="B7" s="45">
+        <f t="shared" ref="B7:G7" si="4">ROUND($D12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="45">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="45">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="45">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="G7" s="45">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="H7" s="45">
+        <f>ROUND($D12/100*(100-H12),0)</f>
+        <v>64</v>
+      </c>
+      <c r="I7" s="43">
+        <v>75</v>
+      </c>
+      <c r="J7" s="45">
+        <f>ROUND($N12/100*(100-J12),0)</f>
+        <v>64</v>
+      </c>
+      <c r="K7" s="45">
+        <f t="shared" ref="K7:P7" si="5">ROUND($N12/100*(100-K12),0)</f>
+        <v>53</v>
+      </c>
+      <c r="L7" s="45">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="M7" s="45">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N7" s="45">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="O7" s="45">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>3</v>
+      </c>
+      <c r="B8" s="45">
+        <f t="shared" ref="B8:F8" si="6">ROUND($E12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="45">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="45">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F8" s="45">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="45">
+        <f>ROUND($E12/100*(100-G12),0)</f>
+        <v>42</v>
+      </c>
+      <c r="H8" s="45">
+        <f>ROUND($E12/100*(100-H12),0)</f>
+        <v>51</v>
+      </c>
+      <c r="I8" s="43">
+        <v>60</v>
+      </c>
+      <c r="J8" s="45">
+        <f>ROUND($M12/100*(100-J12),0)</f>
+        <v>51</v>
+      </c>
+      <c r="K8" s="45">
+        <f t="shared" ref="K8:P8" si="7">ROUND($M12/100*(100-K12),0)</f>
+        <v>42</v>
+      </c>
+      <c r="L8" s="45">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="M8" s="45">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="N8" s="45">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="O8" s="45">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P8" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <v>4</v>
+      </c>
+      <c r="B9" s="45">
+        <f t="shared" ref="B9:G9" si="8">ROUND($F12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="45">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="45">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="45">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="45">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="H9" s="45">
+        <f>ROUND($F12/100*(100-H12),0)</f>
+        <v>38</v>
+      </c>
+      <c r="I9" s="43">
+        <v>45</v>
+      </c>
+      <c r="J9" s="45">
+        <f>ROUND($L12/100*(100-J12),0)</f>
+        <v>38</v>
+      </c>
+      <c r="K9" s="45">
+        <f t="shared" ref="K9:P9" si="9">ROUND($L12/100*(100-K12),0)</f>
+        <v>32</v>
+      </c>
+      <c r="L9" s="45">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="M9" s="45">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="N9" s="45">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="O9" s="45">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="P9" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <v>5</v>
+      </c>
+      <c r="B10" s="45">
+        <f t="shared" ref="B10:G10" si="10">ROUND($G12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="45">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="45">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="45">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="G10" s="45">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="H10" s="45">
+        <f>ROUND($G12/100*(100-H12),0)</f>
+        <v>26</v>
+      </c>
+      <c r="I10" s="43">
+        <v>30</v>
+      </c>
+      <c r="J10" s="45">
+        <f>ROUND($K12/100*(100-J12),0)</f>
+        <v>26</v>
+      </c>
+      <c r="K10" s="45">
+        <f t="shared" ref="K10:P10" si="11">ROUND($K12/100*(100-K12),0)</f>
+        <v>21</v>
+      </c>
+      <c r="L10" s="45">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="M10" s="45">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N10" s="45">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O10" s="45">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P10" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>6</v>
+      </c>
+      <c r="B11" s="45">
+        <f t="shared" ref="B11:G11" si="12">ROUND($H12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="45">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="45">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="45">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="45">
+        <f>ROUND($H12/100*(100-H12),0)</f>
+        <v>13</v>
+      </c>
+      <c r="I11" s="43">
+        <v>15</v>
+      </c>
+      <c r="J11" s="45">
+        <f>ROUND($J12/100*(100-J12),0)</f>
+        <v>13</v>
+      </c>
+      <c r="K11" s="45">
+        <f t="shared" ref="K11:P11" si="13">ROUND($J12/100*(100-K12),0)</f>
+        <v>11</v>
+      </c>
+      <c r="L11" s="45">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="45">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="45">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O11" s="45">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
+        <v>7</v>
+      </c>
+      <c r="B12" s="43">
+        <v>100</v>
+      </c>
+      <c r="C12" s="43">
+        <v>90</v>
+      </c>
+      <c r="D12" s="43">
+        <v>75</v>
+      </c>
+      <c r="E12" s="43">
+        <v>60</v>
+      </c>
+      <c r="F12" s="43">
+        <v>45</v>
+      </c>
+      <c r="G12" s="43">
+        <v>30</v>
+      </c>
+      <c r="H12" s="43">
+        <v>15</v>
+      </c>
+      <c r="I12" s="43">
+        <v>0</v>
+      </c>
+      <c r="J12" s="43">
+        <v>15</v>
+      </c>
+      <c r="K12" s="43">
+        <v>30</v>
+      </c>
+      <c r="L12" s="43">
+        <v>45</v>
+      </c>
+      <c r="M12" s="43">
+        <v>60</v>
+      </c>
+      <c r="N12" s="43">
+        <v>75</v>
+      </c>
+      <c r="O12" s="43">
+        <v>90</v>
+      </c>
+      <c r="P12" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
+        <v>8</v>
+      </c>
+      <c r="B13" s="45">
+        <f t="shared" ref="B13:G13" si="14">ROUND($H12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="45">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="45">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="H13" s="45">
+        <f>ROUND($H12/100*(100-H12),0)</f>
+        <v>13</v>
+      </c>
+      <c r="I13" s="43">
+        <v>15</v>
+      </c>
+      <c r="J13" s="45">
+        <f>ROUND($J12/100*(100-J12),0)</f>
+        <v>13</v>
+      </c>
+      <c r="K13" s="45">
+        <f t="shared" ref="K13:P13" si="15">ROUND($J12/100*(100-K12),0)</f>
+        <v>11</v>
+      </c>
+      <c r="L13" s="45">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="45">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="N13" s="45">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>9</v>
+      </c>
+      <c r="B14" s="45">
+        <f t="shared" ref="B14:G14" si="16">ROUND($G12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="45">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="G14" s="45">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="H14" s="45">
+        <f>ROUND($G12/100*(100-H12),0)</f>
+        <v>26</v>
+      </c>
+      <c r="I14" s="43">
+        <v>30</v>
+      </c>
+      <c r="J14" s="45">
+        <f>ROUND($K12/100*(100-J12),0)</f>
+        <v>26</v>
+      </c>
+      <c r="K14" s="45">
+        <f t="shared" ref="K14:P14" si="17">ROUND($K12/100*(100-K12),0)</f>
+        <v>21</v>
+      </c>
+      <c r="L14" s="45">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="M14" s="45">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="45">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="45">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
+        <v>10</v>
+      </c>
+      <c r="B15" s="45">
+        <f t="shared" ref="B15:G15" si="18">ROUND($F12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="45">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="45">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="G15" s="45">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="H15" s="45">
+        <f>ROUND($F12/100*(100-H12),0)</f>
+        <v>38</v>
+      </c>
+      <c r="I15" s="43">
+        <v>45</v>
+      </c>
+      <c r="J15" s="45">
+        <f>ROUND($L12/100*(100-J12),0)</f>
+        <v>38</v>
+      </c>
+      <c r="K15" s="45">
+        <f t="shared" ref="K15:P15" si="19">ROUND($L12/100*(100-K12),0)</f>
+        <v>32</v>
+      </c>
+      <c r="L15" s="45">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="M15" s="45">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="N15" s="45">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="O15" s="45">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="P15" s="45">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>11</v>
+      </c>
+      <c r="B16" s="45">
+        <f t="shared" ref="B16:G16" si="20">ROUND($E12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="45">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="45">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="F16" s="45">
+        <f t="shared" si="20"/>
+        <v>33</v>
+      </c>
+      <c r="G16" s="45">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="H16" s="45">
+        <f>ROUND($E12/100*(100-H12),0)</f>
+        <v>51</v>
+      </c>
+      <c r="I16" s="43">
+        <v>60</v>
+      </c>
+      <c r="J16" s="45">
+        <f>ROUND($M12/100*(100-J12),0)</f>
+        <v>51</v>
+      </c>
+      <c r="K16" s="45">
+        <f t="shared" ref="K16:P16" si="21">ROUND($M12/100*(100-K12),0)</f>
+        <v>42</v>
+      </c>
+      <c r="L16" s="45">
+        <f t="shared" si="21"/>
+        <v>33</v>
+      </c>
+      <c r="M16" s="45">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="N16" s="45">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="O16" s="45">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="P16" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>12</v>
+      </c>
+      <c r="B17" s="45">
+        <f t="shared" ref="B17:G17" si="22">ROUND($D12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="45">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="45">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="F17" s="45">
+        <f t="shared" si="22"/>
+        <v>41</v>
+      </c>
+      <c r="G17" s="45">
+        <f t="shared" si="22"/>
+        <v>53</v>
+      </c>
+      <c r="H17" s="45">
+        <f>ROUND($D12/100*(100-H12),0)</f>
+        <v>64</v>
+      </c>
+      <c r="I17" s="43">
+        <v>75</v>
+      </c>
+      <c r="J17" s="45">
+        <f>ROUND($N12/100*(100-J12),0)</f>
+        <v>64</v>
+      </c>
+      <c r="K17" s="45">
+        <f t="shared" ref="K17:P17" si="23">ROUND($N12/100*(100-K12),0)</f>
+        <v>53</v>
+      </c>
+      <c r="L17" s="45">
+        <f t="shared" si="23"/>
+        <v>41</v>
+      </c>
+      <c r="M17" s="45">
+        <f t="shared" si="23"/>
+        <v>30</v>
+      </c>
+      <c r="N17" s="45">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="O17" s="45">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="P17" s="45">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>13</v>
+      </c>
+      <c r="B18" s="45">
+        <f t="shared" ref="B18:G18" si="24">ROUND($C12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="45">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" si="24"/>
+        <v>23</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="F18" s="45">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="G18" s="45">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="H18" s="45">
+        <f>ROUND($C12/100*(100-H12),0)</f>
+        <v>77</v>
+      </c>
+      <c r="I18" s="43">
+        <v>90</v>
+      </c>
+      <c r="J18" s="45">
+        <f>ROUND($O12/100*(100-J12),0)</f>
+        <v>77</v>
+      </c>
+      <c r="K18" s="45">
+        <f t="shared" ref="K18:P18" si="25">ROUND($O12/100*(100-K12),0)</f>
+        <v>63</v>
+      </c>
+      <c r="L18" s="45">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="M18" s="45">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="N18" s="45">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="O18" s="45">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="P18" s="45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="42">
+        <v>14</v>
+      </c>
+      <c r="B19" s="48">
+        <f t="shared" ref="B19:G19" si="26">ROUND($B12/100*(100-B12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="48">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="48">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="48">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="48">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="48">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="H19" s="48">
+        <f>ROUND($B12/100*(100-H12),0)</f>
+        <v>85</v>
+      </c>
+      <c r="I19" s="43">
+        <v>100</v>
+      </c>
+      <c r="J19" s="48">
+        <f>ROUND($P12/100*(100-J12),0)</f>
+        <v>85</v>
+      </c>
+      <c r="K19" s="48">
+        <f t="shared" ref="K19:P19" si="27">ROUND($P12/100*(100-K12),0)</f>
+        <v>70</v>
+      </c>
+      <c r="L19" s="48">
+        <f t="shared" si="27"/>
+        <v>55</v>
+      </c>
+      <c r="M19" s="48">
+        <f t="shared" si="27"/>
+        <v>40</v>
+      </c>
+      <c r="N19" s="48">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="O19" s="48">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="P19" s="48">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>